--- a/excel2mysql/excels/upgrade.xlsx
+++ b/excel2mysql/excels/upgrade.xlsx
@@ -19,30 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>up_id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>level</t>
   </si>
   <si>
+    <t>int(255)||</t>
+  </si>
+  <si>
     <t>instructor_fees</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>instructor_rate</t>
   </si>
   <si>
     <t>total_income</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>agent_num</t>
   </si>
   <si>
     <t>rate_b</t>
+  </si>
+  <si>
+    <t>decimal(18,4)||</t>
   </si>
   <si>
     <t>rate_c</t>
@@ -384,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,34 +410,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -430,92 +445,92 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>75</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0.05</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="E4">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,25 +547,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -567,25 +582,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E6">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,31 +617,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D7">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E7">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -637,28 +652,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E8">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H8">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0.01</v>
@@ -672,25 +687,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H9">
         <v>1.4999999999999999E-2</v>
@@ -707,25 +722,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="D10">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E10">
-        <v>105000</v>
+        <v>90000</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H10">
         <v>1.4999999999999999E-2</v>
@@ -742,25 +757,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="D11">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="E11">
-        <v>120000</v>
+        <v>105000</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
         <v>1.4999999999999999E-2</v>
@@ -777,25 +792,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="D12">
         <v>4000</v>
       </c>
       <c r="E12">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H12">
         <v>1.4999999999999999E-2</v>
@@ -812,19 +827,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E13">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -842,6 +857,41 @@
         <v>1</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <v>5000</v>
+      </c>
+      <c r="E14">
+        <v>300000</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.01</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
